--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject18.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject18.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -134,7 +134,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -179,7 +179,7 @@
         <v>0</v>
       </c>
       <c r="R1" s="0">
-        <v>0</v>
+        <v>0.58587223295496116</v>
       </c>
       <c r="S1" s="0">
         <v>0</v>
@@ -224,7 +224,7 @@
         <v>0</v>
       </c>
       <c r="AG1" s="0">
-        <v>0</v>
+        <v>0.9931843240158853</v>
       </c>
       <c r="AH1" s="0">
         <v>0</v>
@@ -236,10 +236,10 @@
         <v>0</v>
       </c>
       <c r="AK1" s="0">
-        <v>0</v>
+        <v>0.5350270937571977</v>
       </c>
       <c r="AL1" s="0">
-        <v>0</v>
+        <v>0.72839985508882532</v>
       </c>
       <c r="AM1" s="0">
         <v>0</v>
@@ -248,7 +248,7 @@
         <v>0</v>
       </c>
       <c r="AO1" s="0">
-        <v>0</v>
+        <v>0.59438939488491127</v>
       </c>
       <c r="AP1" s="0">
         <v>0</v>
@@ -305,7 +305,7 @@
         <v>0</v>
       </c>
       <c r="BH1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI1" s="0">
         <v>0</v>
@@ -314,7 +314,7 @@
         <v>0</v>
       </c>
       <c r="BK1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL1" s="0">
         <v>0</v>
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" s="0">
         <v>0</v>
@@ -424,7 +424,7 @@
         <v>0</v>
       </c>
       <c r="AE2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="0">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="AO2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP2" s="0">
         <v>0</v>
@@ -484,19 +484,19 @@
         <v>0</v>
       </c>
       <c r="AY2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ2" s="0">
         <v>0</v>
       </c>
       <c r="BA2" s="0">
-        <v>0</v>
+        <v>0.61850619327329226</v>
       </c>
       <c r="BB2" s="0">
         <v>0</v>
       </c>
       <c r="BC2" s="0">
-        <v>0</v>
+        <v>0.54713807010959492</v>
       </c>
       <c r="BD2" s="0">
         <v>0</v>
@@ -505,13 +505,13 @@
         <v>0</v>
       </c>
       <c r="BF2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG2" s="0">
         <v>0</v>
       </c>
       <c r="BH2" s="0">
-        <v>0</v>
+        <v>0.9414071055760026</v>
       </c>
       <c r="BI2" s="0">
         <v>0</v>
@@ -535,12 +535,12 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="0">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0</v>
+        <v>0.6874721310360179</v>
       </c>
       <c r="E3" s="0">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="0">
-        <v>1</v>
+        <v>0.63226277071924697</v>
       </c>
       <c r="Q3" s="0">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="T3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" s="0">
         <v>0</v>
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="AD3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="0">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="AG3" s="0">
-        <v>0</v>
+        <v>0.81323188332200924</v>
       </c>
       <c r="AH3" s="0">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="BA3" s="0">
-        <v>0</v>
+        <v>0.75173513543031123</v>
       </c>
       <c r="BB3" s="0">
         <v>0</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="BN3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO3" s="0">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>0</v>
+        <v>0.58216194839472246</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0</v>
+        <v>0.76440923878054767</v>
       </c>
       <c r="F4" s="0">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="0">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="0">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="0">
-        <v>0</v>
+        <v>0.56458028326016463</v>
       </c>
       <c r="V4" s="0">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="0">
         <v>0</v>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="AS4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="0">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="AZ4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" s="0">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="BL4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM4" s="0">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0</v>
+        <v>0.80560854869224052</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Z5" s="0">
-        <v>1</v>
+        <v>0.71783880311911474</v>
       </c>
       <c r="AA5" s="0">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="AQ5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR5" s="0">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="AZ5" s="0">
-        <v>0</v>
+        <v>0.58939316076429771</v>
       </c>
       <c r="BA5" s="0">
         <v>0</v>
@@ -1126,10 +1126,10 @@
         <v>0</v>
       </c>
       <c r="BG5" s="0">
-        <v>0</v>
+        <v>0.74696250215563009</v>
       </c>
       <c r="BH5" s="0">
-        <v>0</v>
+        <v>0.96126297118391901</v>
       </c>
       <c r="BI5" s="0">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0</v>
+        <v>0.92477905362752377</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="AL6" s="0">
-        <v>0</v>
+        <v>0.71350331238788345</v>
       </c>
       <c r="AM6" s="0">
         <v>0</v>
       </c>
       <c r="AN6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="0">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="AX6" s="0">
-        <v>0</v>
+        <v>0.92143643589492585</v>
       </c>
       <c r="AY6" s="0">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>0</v>
       </c>
       <c r="BE6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6" s="0">
         <v>0</v>
       </c>
       <c r="BG6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH6" s="0">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="BJ6" s="0">
-        <v>0</v>
+        <v>0.83338715882048819</v>
       </c>
       <c r="BK6" s="0">
         <v>0</v>
@@ -1439,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="Z7" s="0">
-        <v>0</v>
+        <v>0.68912131743883842</v>
       </c>
       <c r="AA7" s="0">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="AK7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7" s="0">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="AN7" s="0">
-        <v>0</v>
+        <v>0.84629484388658072</v>
       </c>
       <c r="AO7" s="0">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="AQ7" s="0">
-        <v>0</v>
+        <v>0.68340753189130554</v>
       </c>
       <c r="AR7" s="0">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="BA7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7" s="0">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="BF7" s="0">
-        <v>0</v>
+        <v>0.84849963591106348</v>
       </c>
       <c r="BG7" s="0">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>0</v>
+        <v>0.67932919536731207</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" s="0">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="0">
-        <v>0</v>
+        <v>0.83608310598217717</v>
       </c>
       <c r="AC8" s="0">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="0">
-        <v>0</v>
+        <v>0.88207520326175226</v>
       </c>
       <c r="AG8" s="0">
         <v>0</v>
@@ -1744,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="BG8" s="0">
-        <v>0</v>
+        <v>0.57350898855643406</v>
       </c>
       <c r="BH8" s="0">
         <v>0</v>
@@ -1753,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="BJ8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK8" s="0">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="BN8" s="0">
-        <v>0</v>
+        <v>0.89827688647477699</v>
       </c>
       <c r="BO8" s="0">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="0">
         <v>0</v>
@@ -1797,16 +1797,16 @@
         <v>0</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0</v>
+        <v>0.61317959756533325</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0.91951348797212762</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="0">
         <v>0</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="0">
         <v>0</v>
@@ -1875,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="AH9" s="0">
-        <v>0</v>
+        <v>0.60515086012786068</v>
       </c>
       <c r="AI9" s="0">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="AK9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9" s="0">
         <v>0</v>
@@ -1935,13 +1935,13 @@
         <v>0</v>
       </c>
       <c r="BB9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC9" s="0">
         <v>0</v>
       </c>
       <c r="BD9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE9" s="0">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="0">
-        <v>0</v>
+        <v>0.81456143039258</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" s="0">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="AG10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH10" s="0">
         <v>0</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="AU10" s="0">
-        <v>0</v>
+        <v>0.56107041637150279</v>
       </c>
       <c r="AV10" s="0">
         <v>0</v>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="BL10" s="0">
-        <v>0</v>
+        <v>0.76268805005728779</v>
       </c>
       <c r="BM10" s="0">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="BP10" s="0">
-        <v>0</v>
+        <v>0.66523041718317244</v>
       </c>
     </row>
     <row r="11">
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0.60740611385656806</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>0</v>
+        <v>0.55397888209250179</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2266,16 +2266,16 @@
         <v>0</v>
       </c>
       <c r="AA11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="0">
-        <v>0</v>
+        <v>0.5920336855277728</v>
       </c>
       <c r="AC11" s="0">
         <v>0</v>
       </c>
       <c r="AD11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="0">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK11" s="0">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="0">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="Q12" s="0">
-        <v>0</v>
+        <v>0.64078388925304974</v>
       </c>
       <c r="R12" s="0">
         <v>0</v>
       </c>
       <c r="S12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" s="0">
         <v>0</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="0">
-        <v>0</v>
+        <v>0.78848858632606222</v>
       </c>
       <c r="Z12" s="0">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="0">
         <v>0</v>
@@ -2553,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="BB12" s="0">
-        <v>0</v>
+        <v>0.97172902936404926</v>
       </c>
       <c r="BC12" s="0">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0</v>
+        <v>0.98459877246573391</v>
       </c>
       <c r="L13" s="0">
         <v>0</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="0">
-        <v>0</v>
+        <v>0.93273267806474303</v>
       </c>
       <c r="X13" s="0">
         <v>0</v>
@@ -2756,19 +2756,19 @@
         <v>0</v>
       </c>
       <c r="BA13" s="0">
-        <v>0</v>
+        <v>0.66081192088474472</v>
       </c>
       <c r="BB13" s="0">
         <v>0</v>
       </c>
       <c r="BC13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="0">
         <v>0</v>
       </c>
       <c r="BE13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF13" s="0">
         <v>0</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="0">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>0</v>
+        <v>0.99722154637918414</v>
       </c>
       <c r="P14" s="0">
         <v>0</v>
@@ -2863,10 +2863,10 @@
         <v>0</v>
       </c>
       <c r="T14" s="0">
-        <v>0</v>
+        <v>0.58396731919409572</v>
       </c>
       <c r="U14" s="0">
-        <v>0</v>
+        <v>0.5276088057859829</v>
       </c>
       <c r="V14" s="0">
         <v>0</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="AO14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP14" s="0">
         <v>0</v>
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="BD14" s="0">
-        <v>0</v>
+        <v>0.92437514140331489</v>
       </c>
       <c r="BE14" s="0">
         <v>0</v>
@@ -3051,16 +3051,16 @@
         <v>0</v>
       </c>
       <c r="N15" s="0">
-        <v>0</v>
+        <v>0.8320129467685291</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>0</v>
+        <v>0.91796047049006435</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="AI15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="0">
         <v>0</v>
@@ -3165,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="AZ15" s="0">
-        <v>0</v>
+        <v>0.91173294738318567</v>
       </c>
       <c r="BA15" s="0">
         <v>0</v>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="BC15" s="0">
-        <v>0</v>
+        <v>0.79864562045518273</v>
       </c>
       <c r="BD15" s="0">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="BL15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM15" s="0">
         <v>0</v>
@@ -3210,10 +3210,10 @@
         <v>0</v>
       </c>
       <c r="BO15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP15" s="0">
-        <v>0</v>
+        <v>0.66924201719848475</v>
       </c>
     </row>
     <row r="16">
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="0">
-        <v>1</v>
+        <v>0.64371342225794703</v>
       </c>
       <c r="D16" s="0">
         <v>0</v>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="0">
         <v>0</v>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>0</v>
+        <v>0.73648036673825956</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3335,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="AN16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="0">
         <v>0</v>
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="0">
         <v>0</v>
@@ -3457,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="0">
-        <v>0</v>
+        <v>0.68479822942764068</v>
       </c>
       <c r="M17" s="0">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>0</v>
+        <v>0.54892883645881652</v>
       </c>
       <c r="P17" s="0">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" s="0">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="AH17" s="0">
-        <v>0</v>
+        <v>0.76506593883684015</v>
       </c>
       <c r="AI17" s="0">
         <v>0</v>
@@ -3544,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="AO17" s="0">
-        <v>0</v>
+        <v>0.80433296188499015</v>
       </c>
       <c r="AP17" s="0">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="AV17" s="0">
-        <v>0</v>
+        <v>0.95465305618302154</v>
       </c>
       <c r="AW17" s="0">
         <v>0</v>
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="BH17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="0">
         <v>0</v>
@@ -3630,7 +3630,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0</v>
+        <v>0.84783393725096001</v>
       </c>
       <c r="B18" s="0">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>0</v>
+        <v>0.68053416522700205</v>
       </c>
       <c r="Q18" s="0">
         <v>0</v>
@@ -3690,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="U18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" s="0">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="AB18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="0">
         <v>0</v>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK18" s="0">
         <v>0</v>
@@ -3747,13 +3747,13 @@
         <v>0</v>
       </c>
       <c r="AN18" s="0">
-        <v>0</v>
+        <v>0.5304311621820097</v>
       </c>
       <c r="AO18" s="0">
         <v>0</v>
       </c>
       <c r="AP18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ18" s="0">
         <v>0</v>
@@ -3762,13 +3762,13 @@
         <v>0</v>
       </c>
       <c r="AS18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="0">
         <v>0</v>
       </c>
       <c r="AU18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV18" s="0">
         <v>0</v>
@@ -3783,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="AZ18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA18" s="0">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="0">
         <v>0</v>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="AB19" s="0">
-        <v>0</v>
+        <v>0.61377405653323303</v>
       </c>
       <c r="AC19" s="0">
         <v>0</v>
@@ -3929,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="AF19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG19" s="0">
         <v>0</v>
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="AJ19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK19" s="0">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="BA19" s="0">
-        <v>0</v>
+        <v>0.88865985729870256</v>
       </c>
       <c r="BB19" s="0">
         <v>0</v>
@@ -4022,10 +4022,10 @@
         <v>0</v>
       </c>
       <c r="BK19" s="0">
-        <v>0</v>
+        <v>0.96531910436593615</v>
       </c>
       <c r="BL19" s="0">
-        <v>0</v>
+        <v>0.54217347357846801</v>
       </c>
       <c r="BM19" s="0">
         <v>0</v>
@@ -4048,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="0">
         <v>0</v>
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="0">
         <v>0</v>
@@ -4081,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="0">
-        <v>0</v>
+        <v>0.50200172352394046</v>
       </c>
       <c r="O20" s="0">
         <v>0</v>
@@ -4108,10 +4108,10 @@
         <v>0</v>
       </c>
       <c r="W20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="0">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="AM20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN20" s="0">
         <v>0</v>
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="AS20" s="0">
-        <v>0</v>
+        <v>0.58197051330298888</v>
       </c>
       <c r="AT20" s="0">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AW20" s="0">
-        <v>0</v>
+        <v>0.91786075944063494</v>
       </c>
       <c r="AX20" s="0">
         <v>0</v>
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="BF20" s="0">
-        <v>0</v>
+        <v>0.9125651747263408</v>
       </c>
       <c r="BG20" s="0">
         <v>0</v>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="BK20" s="0">
-        <v>0</v>
+        <v>0.76039642935555718</v>
       </c>
       <c r="BL20" s="0">
         <v>0</v>
@@ -4257,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="0">
-        <v>0</v>
+        <v>0.76644337936639761</v>
       </c>
       <c r="E21" s="0">
         <v>0</v>
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="0">
-        <v>0</v>
+        <v>0.88614145937524524</v>
       </c>
       <c r="O21" s="0">
         <v>0</v>
@@ -4299,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" s="0">
         <v>0</v>
@@ -4425,16 +4425,16 @@
         <v>0</v>
       </c>
       <c r="BH21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="0">
-        <v>0</v>
+        <v>0.77005666305835052</v>
       </c>
       <c r="BJ21" s="0">
         <v>0</v>
       </c>
       <c r="BK21" s="0">
-        <v>0</v>
+        <v>0.95853715552404417</v>
       </c>
       <c r="BL21" s="0">
         <v>0</v>
@@ -4559,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="AJ22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK22" s="0">
         <v>0</v>
@@ -4568,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="AM22" s="0">
-        <v>0</v>
+        <v>0.60299305353232546</v>
       </c>
       <c r="AN22" s="0">
         <v>0</v>
@@ -4577,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="AP22" s="0">
-        <v>0</v>
+        <v>0.6651380661667422</v>
       </c>
       <c r="AQ22" s="0">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="BE22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF22" s="0">
         <v>0</v>
@@ -4681,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="0">
         <v>0</v>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="0">
-        <v>0</v>
+        <v>0.753608705826599</v>
       </c>
       <c r="N23" s="0">
         <v>0</v>
@@ -4708,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="0">
         <v>0</v>
@@ -4717,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" s="0">
         <v>0</v>
@@ -4732,13 +4732,13 @@
         <v>0</v>
       </c>
       <c r="Y23" s="0">
-        <v>0</v>
+        <v>0.83997343161025861</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
       </c>
       <c r="AA23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="0">
         <v>0</v>
@@ -4768,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="AK23" s="0">
-        <v>0</v>
+        <v>0.58099888715473835</v>
       </c>
       <c r="AL23" s="0">
         <v>0</v>
@@ -4816,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="BA23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB23" s="0">
         <v>0</v>
@@ -4923,7 +4923,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" s="0">
         <v>0</v>
@@ -4938,13 +4938,13 @@
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0.63883218111939422</v>
       </c>
       <c r="Z24" s="0">
         <v>0</v>
       </c>
       <c r="AA24" s="0">
-        <v>0</v>
+        <v>0.57661782630485359</v>
       </c>
       <c r="AB24" s="0">
         <v>0</v>
@@ -5025,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="BB24" s="0">
-        <v>0</v>
+        <v>0.81892659073428387</v>
       </c>
       <c r="BC24" s="0">
         <v>0</v>
@@ -5049,13 +5049,13 @@
         <v>0</v>
       </c>
       <c r="BJ24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK24" s="0">
         <v>0</v>
       </c>
       <c r="BL24" s="0">
-        <v>0</v>
+        <v>0.84732843713804651</v>
       </c>
       <c r="BM24" s="0">
         <v>0</v>
@@ -5105,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="0">
-        <v>0</v>
+        <v>0.53930146214793573</v>
       </c>
       <c r="M25" s="0">
         <v>0</v>
@@ -5138,10 +5138,10 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>0</v>
+        <v>0.57787813698032509</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0.96486129745642502</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="AJ25" s="0">
-        <v>0</v>
+        <v>0.66656836510415785</v>
       </c>
       <c r="AK25" s="0">
         <v>0</v>
@@ -5201,7 +5201,7 @@
         <v>0</v>
       </c>
       <c r="AR25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS25" s="0">
         <v>0</v>
@@ -5231,10 +5231,10 @@
         <v>0</v>
       </c>
       <c r="BB25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="0">
         <v>0</v>
@@ -5249,13 +5249,13 @@
         <v>0</v>
       </c>
       <c r="BH25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="0">
         <v>0</v>
       </c>
       <c r="BJ25" s="0">
-        <v>0</v>
+        <v>0.5091855509933163</v>
       </c>
       <c r="BK25" s="0">
         <v>0</v>
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="BP25" s="0">
-        <v>0</v>
+        <v>0.63278014696945339</v>
       </c>
     </row>
     <row r="26">
@@ -5290,13 +5290,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="0">
-        <v>1</v>
+        <v>0.85953001256127948</v>
       </c>
       <c r="F26" s="0">
         <v>0</v>
       </c>
       <c r="G26" s="0">
-        <v>0</v>
+        <v>0.852041042658926</v>
       </c>
       <c r="H26" s="0">
         <v>0</v>
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5383,13 +5383,13 @@
         <v>0</v>
       </c>
       <c r="AJ26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK26" s="0">
         <v>0</v>
       </c>
       <c r="AL26" s="0">
-        <v>0</v>
+        <v>0.75178028173530498</v>
       </c>
       <c r="AM26" s="0">
         <v>0</v>
@@ -5431,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="AZ26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA26" s="0">
         <v>0</v>
@@ -5449,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="BF26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG26" s="0">
         <v>0</v>
@@ -5470,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="BM26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="0">
         <v>0</v>
@@ -5514,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="0">
         <v>0</v>
@@ -5550,10 +5550,10 @@
         <v>0</v>
       </c>
       <c r="W27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27" s="0">
-        <v>0</v>
+        <v>0.73923458038901246</v>
       </c>
       <c r="Y27" s="0">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="0">
-        <v>0</v>
+        <v>0.55681347807643811</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5637,7 +5637,7 @@
         <v>0</v>
       </c>
       <c r="AZ27" s="0">
-        <v>0</v>
+        <v>0.95434677774033894</v>
       </c>
       <c r="BA27" s="0">
         <v>0</v>
@@ -5649,10 +5649,10 @@
         <v>0</v>
       </c>
       <c r="BD27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE27" s="0">
-        <v>0</v>
+        <v>0.88324733481525652</v>
       </c>
       <c r="BF27" s="0">
         <v>0</v>
@@ -5711,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="0">
-        <v>0</v>
+        <v>0.86061346397804805</v>
       </c>
       <c r="I28" s="0">
         <v>0</v>
@@ -5720,10 +5720,10 @@
         <v>0</v>
       </c>
       <c r="K28" s="0">
-        <v>0</v>
+        <v>0.55846698817080531</v>
       </c>
       <c r="L28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" s="0">
         <v>0</v>
@@ -5741,10 +5741,10 @@
         <v>0</v>
       </c>
       <c r="R28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28" s="0">
-        <v>0</v>
+        <v>0.56480728165576355</v>
       </c>
       <c r="T28" s="0">
         <v>0</v>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="0">
         <v>0</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="0">
         <v>0</v>
@@ -5798,7 +5798,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="0">
-        <v>0</v>
+        <v>0.95558722071509661</v>
       </c>
       <c r="AL28" s="0">
         <v>0</v>
@@ -5834,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="AW28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX28" s="0">
         <v>0</v>
@@ -5849,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="BB28" s="0">
-        <v>0</v>
+        <v>0.69762148966685</v>
       </c>
       <c r="BC28" s="0">
         <v>0</v>
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" s="0">
         <v>0</v>
@@ -5974,10 +5974,10 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>0</v>
+        <v>0.66537065374190973</v>
       </c>
       <c r="AB29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="AL29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="0">
         <v>0</v>
@@ -6073,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="BH29" s="0">
-        <v>0</v>
+        <v>0.9443603388774513</v>
       </c>
       <c r="BI29" s="0">
         <v>0</v>
@@ -6082,7 +6082,7 @@
         <v>0</v>
       </c>
       <c r="BK29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL29" s="0">
         <v>0</v>
@@ -6094,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="BO29" s="0">
-        <v>1</v>
+        <v>0.62598156976827923</v>
       </c>
       <c r="BP29" s="0">
         <v>0</v>
@@ -6108,7 +6108,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="0">
         <v>0</v>
@@ -6132,7 +6132,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="0">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>0</v>
+        <v>0.51778281468643428</v>
       </c>
       <c r="AF30" s="0">
         <v>0</v>
@@ -6228,16 +6228,16 @@
         <v>0</v>
       </c>
       <c r="AQ30" s="0">
-        <v>0</v>
+        <v>0.7293941369322906</v>
       </c>
       <c r="AR30" s="0">
         <v>0</v>
       </c>
       <c r="AS30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT30" s="0">
-        <v>0</v>
+        <v>0.9022192013864383</v>
       </c>
       <c r="AU30" s="0">
         <v>0</v>
@@ -6273,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="BF30" s="0">
-        <v>0</v>
+        <v>0.71078033572300736</v>
       </c>
       <c r="BG30" s="0">
         <v>0</v>
@@ -6282,7 +6282,7 @@
         <v>0</v>
       </c>
       <c r="BI30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ30" s="0">
         <v>0</v>
@@ -6311,7 +6311,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" s="0">
         <v>0</v>
@@ -6395,19 +6395,19 @@
         <v>0</v>
       </c>
       <c r="AD31" s="0">
-        <v>0</v>
+        <v>0.59135805717161616</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="0">
         <v>0</v>
       </c>
       <c r="AH31" s="0">
-        <v>0</v>
+        <v>0.88936895427063845</v>
       </c>
       <c r="AI31" s="0">
         <v>0</v>
@@ -6416,7 +6416,7 @@
         <v>0</v>
       </c>
       <c r="AK31" s="0">
-        <v>0</v>
+        <v>0.97510533385956188</v>
       </c>
       <c r="AL31" s="0">
         <v>0</v>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="AN31" s="0">
-        <v>0</v>
+        <v>0.92824192247372583</v>
       </c>
       <c r="AO31" s="0">
         <v>0</v>
@@ -6449,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="AV31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW31" s="0">
         <v>0</v>
@@ -6535,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="0">
-        <v>0</v>
+        <v>0.68920931944914443</v>
       </c>
       <c r="I32" s="0">
         <v>0</v>
@@ -6568,7 +6568,7 @@
         <v>0</v>
       </c>
       <c r="S32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T32" s="0">
         <v>0</v>
@@ -6604,7 +6604,7 @@
         <v>0</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
@@ -6613,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="AH32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6637,7 +6637,7 @@
         <v>0</v>
       </c>
       <c r="AP32" s="0">
-        <v>0</v>
+        <v>0.83719980521663051</v>
       </c>
       <c r="AQ32" s="0">
         <v>0</v>
@@ -6700,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="BK32" s="0">
-        <v>0</v>
+        <v>0.63543246941830778</v>
       </c>
       <c r="BL32" s="0">
         <v>0</v>
@@ -6712,7 +6712,7 @@
         <v>0</v>
       </c>
       <c r="BO32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP32" s="0">
         <v>0</v>
@@ -6720,13 +6720,13 @@
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0</v>
+        <v>0.95762674795745717</v>
       </c>
       <c r="B33" s="0">
         <v>0</v>
       </c>
       <c r="C33" s="0">
-        <v>0</v>
+        <v>0.59623063222476358</v>
       </c>
       <c r="D33" s="0">
         <v>0</v>
@@ -6747,7 +6747,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="0">
         <v>0</v>
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="AI33" s="0">
-        <v>0</v>
+        <v>0.88824576319212656</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6861,7 +6861,7 @@
         <v>0</v>
       </c>
       <c r="AV33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW33" s="0">
         <v>0</v>
@@ -6888,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="BE33" s="0">
-        <v>0</v>
+        <v>0.99742506287551036</v>
       </c>
       <c r="BF33" s="0">
         <v>0</v>
@@ -6915,13 +6915,13 @@
         <v>0</v>
       </c>
       <c r="BN33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO33" s="0">
         <v>0</v>
       </c>
       <c r="BP33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -6950,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="0">
-        <v>0</v>
+        <v>0.51549045866744958</v>
       </c>
       <c r="J34" s="0">
         <v>0</v>
@@ -6974,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="0">
-        <v>0</v>
+        <v>0.76417867191832023</v>
       </c>
       <c r="R34" s="0">
         <v>0</v>
@@ -7016,10 +7016,10 @@
         <v>0</v>
       </c>
       <c r="AE34" s="0">
-        <v>0</v>
+        <v>0.51803737263167227</v>
       </c>
       <c r="AF34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="0">
         <v>0</v>
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7049,7 +7049,7 @@
         <v>0</v>
       </c>
       <c r="AP34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ34" s="0">
         <v>0</v>
@@ -7121,10 +7121,10 @@
         <v>0</v>
       </c>
       <c r="BN34" s="0">
-        <v>0</v>
+        <v>0.58447547742131789</v>
       </c>
       <c r="BO34" s="0">
-        <v>0</v>
+        <v>0.56521059309835631</v>
       </c>
       <c r="BP34" s="0">
         <v>0</v>
@@ -7174,7 +7174,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" s="0">
         <v>0</v>
@@ -7228,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0</v>
+        <v>0.63508021822173466</v>
       </c>
       <c r="AH35" s="0">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="0">
-        <v>0</v>
+        <v>0.72226529778061677</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7303,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="BF35" s="0">
-        <v>1</v>
+        <v>0.8390107126142794</v>
       </c>
       <c r="BG35" s="0">
         <v>0</v>
@@ -7315,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="BJ35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK35" s="0">
         <v>0</v>
@@ -7327,13 +7327,13 @@
         <v>0</v>
       </c>
       <c r="BN35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO35" s="0">
         <v>0</v>
       </c>
       <c r="BP35" s="0">
-        <v>0</v>
+        <v>0.66919409783208805</v>
       </c>
     </row>
     <row r="36">
@@ -7347,7 +7347,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" s="0">
         <v>0</v>
@@ -7368,7 +7368,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" s="0">
         <v>0</v>
@@ -7389,10 +7389,10 @@
         <v>0</v>
       </c>
       <c r="R36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36" s="0">
         <v>0</v>
@@ -7401,7 +7401,7 @@
         <v>0</v>
       </c>
       <c r="V36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36" s="0">
         <v>0</v>
@@ -7410,10 +7410,10 @@
         <v>0</v>
       </c>
       <c r="Y36" s="0">
-        <v>0</v>
+        <v>0.95491772702992594</v>
       </c>
       <c r="Z36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA36" s="0">
         <v>0</v>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="0">
         <v>0</v>
@@ -7458,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="AO36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP36" s="0">
         <v>0</v>
@@ -7509,7 +7509,7 @@
         <v>0</v>
       </c>
       <c r="BF36" s="0">
-        <v>0</v>
+        <v>0.91844655045440371</v>
       </c>
       <c r="BG36" s="0">
         <v>0</v>
@@ -7544,7 +7544,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0</v>
+        <v>0.85164221402122675</v>
       </c>
       <c r="B37" s="0">
         <v>0</v>
@@ -7562,13 +7562,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="0">
         <v>0</v>
       </c>
       <c r="I37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" s="0">
         <v>0</v>
@@ -7610,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="0">
-        <v>0</v>
+        <v>0.55443842541520272</v>
       </c>
       <c r="X37" s="0">
         <v>0</v>
@@ -7625,7 +7625,7 @@
         <v>0</v>
       </c>
       <c r="AB37" s="0">
-        <v>0</v>
+        <v>0.84532107897380904</v>
       </c>
       <c r="AC37" s="0">
         <v>0</v>
@@ -7634,7 +7634,7 @@
         <v>0</v>
       </c>
       <c r="AE37" s="0">
-        <v>0</v>
+        <v>0.86269555551841115</v>
       </c>
       <c r="AF37" s="0">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0</v>
+        <v>0.51303851631386632</v>
       </c>
       <c r="AJ37" s="0">
         <v>0</v>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="AY37" s="0">
-        <v>0</v>
+        <v>0.821489291265318</v>
       </c>
       <c r="AZ37" s="0">
         <v>0</v>
@@ -7706,7 +7706,7 @@
         <v>0</v>
       </c>
       <c r="BC37" s="0">
-        <v>0</v>
+        <v>0.59467042089867783</v>
       </c>
       <c r="BD37" s="0">
         <v>0</v>
@@ -7733,7 +7733,7 @@
         <v>0</v>
       </c>
       <c r="BL37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM37" s="0">
         <v>0</v>
@@ -7750,7 +7750,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0</v>
+        <v>0.74021726911777597</v>
       </c>
       <c r="B38" s="0">
         <v>0</v>
@@ -7765,7 +7765,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="0">
-        <v>0</v>
+        <v>0.88940613293482351</v>
       </c>
       <c r="G38" s="0">
         <v>0</v>
@@ -7825,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="Z38" s="0">
-        <v>0</v>
+        <v>0.8163208784076661</v>
       </c>
       <c r="AA38" s="0">
         <v>0</v>
@@ -7834,7 +7834,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD38" s="0">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN38" s="0">
         <v>0</v>
@@ -7885,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="AT38" s="0">
-        <v>0</v>
+        <v>0.50465575043360011</v>
       </c>
       <c r="AU38" s="0">
         <v>0</v>
@@ -7936,7 +7936,7 @@
         <v>0</v>
       </c>
       <c r="BK38" s="0">
-        <v>0</v>
+        <v>0.92487762288282971</v>
       </c>
       <c r="BL38" s="0">
         <v>0</v>
@@ -8013,13 +8013,13 @@
         <v>0</v>
       </c>
       <c r="T39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U39" s="0">
         <v>0</v>
       </c>
       <c r="V39" s="0">
-        <v>0</v>
+        <v>0.79109007997128644</v>
       </c>
       <c r="W39" s="0">
         <v>0</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>0</v>
+        <v>0.81656503856226026</v>
       </c>
       <c r="AO39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8112,7 +8112,7 @@
         <v>0</v>
       </c>
       <c r="BA39" s="0">
-        <v>0</v>
+        <v>0.99198768863052256</v>
       </c>
       <c r="BB39" s="0">
         <v>0</v>
@@ -8177,10 +8177,10 @@
         <v>0</v>
       </c>
       <c r="F40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" s="0">
-        <v>0</v>
+        <v>0.57968617156717439</v>
       </c>
       <c r="H40" s="0">
         <v>0</v>
@@ -8207,13 +8207,13 @@
         <v>0</v>
       </c>
       <c r="P40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="0">
         <v>0</v>
       </c>
       <c r="R40" s="0">
-        <v>0</v>
+        <v>0.70001267668346012</v>
       </c>
       <c r="S40" s="0">
         <v>0</v>
@@ -8252,7 +8252,7 @@
         <v>0</v>
       </c>
       <c r="AE40" s="0">
-        <v>0</v>
+        <v>0.95590361309752736</v>
       </c>
       <c r="AF40" s="0">
         <v>0</v>
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="AM40" s="0">
-        <v>0</v>
+        <v>0.89273946442813767</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="AR40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS40" s="0">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="BA40" s="0">
-        <v>0</v>
+        <v>0.94114598454819909</v>
       </c>
       <c r="BB40" s="0">
         <v>0</v>
@@ -8327,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="BD40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE40" s="0">
         <v>0</v>
@@ -8368,10 +8368,10 @@
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0</v>
+        <v>0.66244753931254485</v>
       </c>
       <c r="B41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" s="0">
         <v>0</v>
@@ -8407,7 +8407,7 @@
         <v>0</v>
       </c>
       <c r="N41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" s="0">
         <v>0</v>
@@ -8416,7 +8416,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="0">
-        <v>0</v>
+        <v>0.62635290826933554</v>
       </c>
       <c r="R41" s="0">
         <v>0</v>
@@ -8473,7 +8473,7 @@
         <v>0</v>
       </c>
       <c r="AJ41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK41" s="0">
         <v>0</v>
@@ -8482,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN41" s="0">
         <v>0</v>
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>0</v>
+        <v>0.84471200622366371</v>
       </c>
       <c r="AQ41" s="0">
         <v>0</v>
@@ -8515,10 +8515,10 @@
         <v>0</v>
       </c>
       <c r="AX41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ41" s="0">
         <v>0</v>
@@ -8625,7 +8625,7 @@
         <v>0</v>
       </c>
       <c r="R42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S42" s="0">
         <v>0</v>
@@ -8637,7 +8637,7 @@
         <v>0</v>
       </c>
       <c r="V42" s="0">
-        <v>0</v>
+        <v>0.81593270686320341</v>
       </c>
       <c r="W42" s="0">
         <v>0</v>
@@ -8667,13 +8667,13 @@
         <v>0</v>
       </c>
       <c r="AF42" s="0">
-        <v>0</v>
+        <v>0.56562998309177814</v>
       </c>
       <c r="AG42" s="0">
         <v>0</v>
       </c>
       <c r="AH42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI42" s="0">
         <v>0</v>
@@ -8694,7 +8694,7 @@
         <v>0</v>
       </c>
       <c r="AO42" s="0">
-        <v>0</v>
+        <v>0.84144105624991861</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
@@ -8739,10 +8739,10 @@
         <v>0</v>
       </c>
       <c r="BD42" s="0">
-        <v>1</v>
+        <v>0.62214503636160923</v>
       </c>
       <c r="BE42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF42" s="0">
         <v>0</v>
@@ -8792,13 +8792,13 @@
         <v>0</v>
       </c>
       <c r="E43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" s="0">
         <v>0</v>
       </c>
       <c r="G43" s="0">
-        <v>0</v>
+        <v>0.57313203471587004</v>
       </c>
       <c r="H43" s="0">
         <v>0</v>
@@ -8867,7 +8867,7 @@
         <v>0</v>
       </c>
       <c r="AD43" s="0">
-        <v>0</v>
+        <v>0.95106644976585919</v>
       </c>
       <c r="AE43" s="0">
         <v>0</v>
@@ -8912,7 +8912,7 @@
         <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>0</v>
+        <v>0.51541223055901586</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="AW43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX43" s="0">
         <v>0</v>
@@ -8957,7 +8957,7 @@
         <v>0</v>
       </c>
       <c r="BH43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI43" s="0">
         <v>0</v>
@@ -8981,7 +8981,7 @@
         <v>0</v>
       </c>
       <c r="BP43" s="0">
-        <v>0</v>
+        <v>0.78035289880758552</v>
       </c>
     </row>
     <row r="44">
@@ -9058,7 +9058,7 @@
         <v>0</v>
       </c>
       <c r="Y44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z44" s="0">
         <v>0</v>
@@ -9103,7 +9103,7 @@
         <v>0</v>
       </c>
       <c r="AN44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO44" s="0">
         <v>0</v>
@@ -9118,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0.51717556929027042</v>
       </c>
       <c r="AT44" s="0">
         <v>0</v>
@@ -9139,7 +9139,7 @@
         <v>0</v>
       </c>
       <c r="AZ44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA44" s="0">
         <v>0</v>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="BD44" s="0">
-        <v>0</v>
+        <v>0.6643954369269971</v>
       </c>
       <c r="BE44" s="0">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="BO44" s="0">
-        <v>0</v>
+        <v>0.66222690509535043</v>
       </c>
       <c r="BP44" s="0">
         <v>0</v>
@@ -9201,7 +9201,7 @@
         <v>0</v>
       </c>
       <c r="D45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" s="0">
         <v>0</v>
@@ -9243,13 +9243,13 @@
         <v>0</v>
       </c>
       <c r="R45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S45" s="0">
         <v>0</v>
       </c>
       <c r="T45" s="0">
-        <v>0</v>
+        <v>0.99804545865566885</v>
       </c>
       <c r="U45" s="0">
         <v>0</v>
@@ -9279,7 +9279,7 @@
         <v>0</v>
       </c>
       <c r="AD45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE45" s="0">
         <v>0</v>
@@ -9318,16 +9318,16 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0</v>
+        <v>0.67494028025040365</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0.57792272894193353</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU45" s="0">
         <v>0</v>
@@ -9390,7 +9390,7 @@
         <v>0</v>
       </c>
       <c r="BO45" s="0">
-        <v>0</v>
+        <v>0.56573907889889674</v>
       </c>
       <c r="BP45" s="0">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="AD46" s="0">
-        <v>0</v>
+        <v>0.87407424512534004</v>
       </c>
       <c r="AE46" s="0">
         <v>0</v>
@@ -9509,7 +9509,7 @@
         <v>0</v>
       </c>
       <c r="AL46" s="0">
-        <v>0</v>
+        <v>0.93763551120995525</v>
       </c>
       <c r="AM46" s="0">
         <v>0</v>
@@ -9530,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
@@ -9581,10 +9581,10 @@
         <v>0</v>
       </c>
       <c r="BJ46" s="0">
-        <v>0</v>
+        <v>0.97479615501673189</v>
       </c>
       <c r="BK46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL46" s="0">
         <v>0</v>
@@ -9631,7 +9631,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="0">
-        <v>0</v>
+        <v>0.96621892580383162</v>
       </c>
       <c r="K47" s="0">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="R47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S47" s="0">
         <v>0</v>
@@ -9748,10 +9748,10 @@
         <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>0</v>
+        <v>0.65187130870031362</v>
       </c>
       <c r="AX47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY47" s="0">
         <v>0</v>
@@ -9796,13 +9796,13 @@
         <v>0</v>
       </c>
       <c r="BM47" s="0">
-        <v>1</v>
+        <v>0.89230409677537093</v>
       </c>
       <c r="BN47" s="0">
         <v>0</v>
       </c>
       <c r="BO47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP47" s="0">
         <v>0</v>
@@ -9858,7 +9858,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="0">
-        <v>0</v>
+        <v>0.71200943169308251</v>
       </c>
       <c r="R48" s="0">
         <v>0</v>
@@ -9900,13 +9900,13 @@
         <v>0</v>
       </c>
       <c r="AE48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF48" s="0">
         <v>0</v>
       </c>
       <c r="AG48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH48" s="0">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX48" s="0">
         <v>0</v>
@@ -9981,7 +9981,7 @@
         <v>0</v>
       </c>
       <c r="BF48" s="0">
-        <v>0</v>
+        <v>0.6824627114193067</v>
       </c>
       <c r="BG48" s="0">
         <v>0</v>
@@ -9990,7 +9990,7 @@
         <v>0</v>
       </c>
       <c r="BI48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ48" s="0">
         <v>0</v>
@@ -10073,7 +10073,7 @@
         <v>0</v>
       </c>
       <c r="T49" s="0">
-        <v>0</v>
+        <v>0.66475261527603102</v>
       </c>
       <c r="U49" s="0">
         <v>0</v>
@@ -10097,7 +10097,7 @@
         <v>0</v>
       </c>
       <c r="AB49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC49" s="0">
         <v>0</v>
@@ -10142,7 +10142,7 @@
         <v>0</v>
       </c>
       <c r="AQ49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR49" s="0">
         <v>0</v>
@@ -10154,10 +10154,10 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0</v>
+        <v>0.8560396150135271</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
@@ -10166,10 +10166,10 @@
         <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0.93482304923351622</v>
       </c>
       <c r="AZ49" s="0">
-        <v>0</v>
+        <v>0.60169315322520811</v>
       </c>
       <c r="BA49" s="0">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="BO49" s="0">
-        <v>0</v>
+        <v>0.9986001756477092</v>
       </c>
       <c r="BP49" s="0">
         <v>0</v>
@@ -10237,7 +10237,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="0">
-        <v>0</v>
+        <v>0.80967213689570872</v>
       </c>
       <c r="G50" s="0">
         <v>0</v>
@@ -10342,7 +10342,7 @@
         <v>0</v>
       </c>
       <c r="AO50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP50" s="0">
         <v>0</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="AU50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV50" s="0">
         <v>0</v>
@@ -10372,13 +10372,13 @@
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ50" s="0">
         <v>0</v>
       </c>
       <c r="BA50" s="0">
-        <v>0</v>
+        <v>0.95016194461531134</v>
       </c>
       <c r="BB50" s="0">
         <v>0</v>
@@ -10431,7 +10431,7 @@
         <v>0</v>
       </c>
       <c r="B51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" s="0">
         <v>0</v>
@@ -10536,7 +10536,7 @@
         <v>0</v>
       </c>
       <c r="AK51" s="0">
-        <v>0</v>
+        <v>0.89062645446558708</v>
       </c>
       <c r="AL51" s="0">
         <v>0</v>
@@ -10548,7 +10548,7 @@
         <v>0</v>
       </c>
       <c r="AO51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP51" s="0">
         <v>0</v>
@@ -10572,10 +10572,10 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0.65904516035613248</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
@@ -10608,7 +10608,7 @@
         <v>0</v>
       </c>
       <c r="BI51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ51" s="0">
         <v>0</v>
@@ -10617,7 +10617,7 @@
         <v>0</v>
       </c>
       <c r="BL51" s="0">
-        <v>0</v>
+        <v>0.85857350603891769</v>
       </c>
       <c r="BM51" s="0">
         <v>0</v>
@@ -10629,7 +10629,7 @@
         <v>0</v>
       </c>
       <c r="BP51" s="0">
-        <v>0</v>
+        <v>0.743508836714879</v>
       </c>
     </row>
     <row r="52">
@@ -10643,10 +10643,10 @@
         <v>0</v>
       </c>
       <c r="D52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" s="0">
-        <v>0</v>
+        <v>0.5439173226809777</v>
       </c>
       <c r="F52" s="0">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="0">
-        <v>0</v>
+        <v>0.67332196091173291</v>
       </c>
       <c r="P52" s="0">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="R52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S52" s="0">
         <v>0</v>
@@ -10709,10 +10709,10 @@
         <v>0</v>
       </c>
       <c r="Z52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA52" s="0">
-        <v>0</v>
+        <v>0.61897825539567719</v>
       </c>
       <c r="AB52" s="0">
         <v>0</v>
@@ -10763,7 +10763,7 @@
         <v>0</v>
       </c>
       <c r="AR52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS52" s="0">
         <v>0</v>
@@ -10778,7 +10778,7 @@
         <v>0</v>
       </c>
       <c r="AW52" s="0">
-        <v>0</v>
+        <v>0.89764701694972326</v>
       </c>
       <c r="AX52" s="0">
         <v>0</v>
@@ -10808,7 +10808,7 @@
         <v>0</v>
       </c>
       <c r="BG52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH52" s="0">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="BL52" s="0">
-        <v>0</v>
+        <v>0.9166212629072511</v>
       </c>
       <c r="BM52" s="0">
         <v>0</v>
@@ -10843,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="B53" s="0">
-        <v>0</v>
+        <v>0.71541485904666713</v>
       </c>
       <c r="C53" s="0">
-        <v>0</v>
+        <v>0.92735325295060289</v>
       </c>
       <c r="D53" s="0">
         <v>0</v>
@@ -10858,7 +10858,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" s="0">
         <v>0</v>
@@ -10876,7 +10876,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="0">
-        <v>0</v>
+        <v>0.72343862020649419</v>
       </c>
       <c r="N53" s="0">
         <v>0</v>
@@ -10894,7 +10894,7 @@
         <v>0</v>
       </c>
       <c r="S53" s="0">
-        <v>0</v>
+        <v>0.97679869928827046</v>
       </c>
       <c r="T53" s="0">
         <v>0</v>
@@ -10906,7 +10906,7 @@
         <v>0</v>
       </c>
       <c r="W53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X53" s="0">
         <v>0</v>
@@ -10954,10 +10954,10 @@
         <v>0</v>
       </c>
       <c r="AM53" s="0">
-        <v>0</v>
+        <v>0.6067484130227051</v>
       </c>
       <c r="AN53" s="0">
-        <v>0</v>
+        <v>0.94742033117314817</v>
       </c>
       <c r="AO53" s="0">
         <v>0</v>
@@ -10987,7 +10987,7 @@
         <v>0</v>
       </c>
       <c r="AX53" s="0">
-        <v>0</v>
+        <v>0.7864801830734568</v>
       </c>
       <c r="AY53" s="0">
         <v>0</v>
@@ -10999,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC53" s="0">
         <v>0</v>
@@ -11026,7 +11026,7 @@
         <v>0</v>
       </c>
       <c r="BK53" s="0">
-        <v>0</v>
+        <v>0.80328793084327321</v>
       </c>
       <c r="BL53" s="0">
         <v>0</v>
@@ -11070,7 +11070,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" s="0">
         <v>0</v>
@@ -11079,7 +11079,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="0">
-        <v>0</v>
+        <v>0.9184748128497765</v>
       </c>
       <c r="M54" s="0">
         <v>0</v>
@@ -11115,10 +11115,10 @@
         <v>0</v>
       </c>
       <c r="X54" s="0">
-        <v>0</v>
+        <v>0.69129219743110881</v>
       </c>
       <c r="Y54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z54" s="0">
         <v>0</v>
@@ -11127,7 +11127,7 @@
         <v>0</v>
       </c>
       <c r="AB54" s="0">
-        <v>0</v>
+        <v>0.97073574143022379</v>
       </c>
       <c r="AC54" s="0">
         <v>0</v>
@@ -11202,13 +11202,13 @@
         <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD54" s="0">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>0</v>
       </c>
       <c r="BG54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH54" s="0">
         <v>0</v>
@@ -11255,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="B55" s="0">
-        <v>0</v>
+        <v>0.60551002463644166</v>
       </c>
       <c r="C55" s="0">
         <v>0</v>
@@ -11288,13 +11288,13 @@
         <v>0</v>
       </c>
       <c r="M55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N55" s="0">
         <v>0</v>
       </c>
       <c r="O55" s="0">
-        <v>0</v>
+        <v>0.55939280444797534</v>
       </c>
       <c r="P55" s="0">
         <v>0</v>
@@ -11324,7 +11324,7 @@
         <v>0</v>
       </c>
       <c r="Y55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z55" s="0">
         <v>0</v>
@@ -11360,7 +11360,7 @@
         <v>0</v>
       </c>
       <c r="AK55" s="0">
-        <v>0</v>
+        <v>0.71983912598316913</v>
       </c>
       <c r="AL55" s="0">
         <v>0</v>
@@ -11411,7 +11411,7 @@
         <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
@@ -11450,7 +11450,7 @@
         <v>0</v>
       </c>
       <c r="BO55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP55" s="0">
         <v>0</v>
@@ -11482,7 +11482,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" s="0">
         <v>0</v>
@@ -11497,7 +11497,7 @@
         <v>0</v>
       </c>
       <c r="N56" s="0">
-        <v>0</v>
+        <v>0.78795538871137016</v>
       </c>
       <c r="O56" s="0">
         <v>0</v>
@@ -11536,7 +11536,7 @@
         <v>0</v>
       </c>
       <c r="AA56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB56" s="0">
         <v>0</v>
@@ -11575,19 +11575,19 @@
         <v>0</v>
       </c>
       <c r="AN56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO56" s="0">
         <v>0</v>
       </c>
       <c r="AP56" s="0">
-        <v>1</v>
+        <v>0.78820986408494276</v>
       </c>
       <c r="AQ56" s="0">
         <v>0</v>
       </c>
       <c r="AR56" s="0">
-        <v>0</v>
+        <v>0.56508107595663648</v>
       </c>
       <c r="AS56" s="0">
         <v>0</v>
@@ -11644,7 +11644,7 @@
         <v>0</v>
       </c>
       <c r="BK56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL56" s="0">
         <v>0</v>
@@ -11679,7 +11679,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" s="0">
         <v>0</v>
@@ -11700,7 +11700,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57" s="0">
         <v>0</v>
@@ -11727,7 +11727,7 @@
         <v>0</v>
       </c>
       <c r="V57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W57" s="0">
         <v>0</v>
@@ -11742,7 +11742,7 @@
         <v>0</v>
       </c>
       <c r="AA57" s="0">
-        <v>0</v>
+        <v>0.88601125498558542</v>
       </c>
       <c r="AB57" s="0">
         <v>0</v>
@@ -11760,7 +11760,7 @@
         <v>0</v>
       </c>
       <c r="AG57" s="0">
-        <v>0</v>
+        <v>0.65905332698313912</v>
       </c>
       <c r="AH57" s="0">
         <v>0</v>
@@ -11787,7 +11787,7 @@
         <v>0</v>
       </c>
       <c r="AP57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ57" s="0">
         <v>0</v>
@@ -11856,13 +11856,13 @@
         <v>0</v>
       </c>
       <c r="BM57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN57" s="0">
         <v>0</v>
       </c>
       <c r="BO57" s="0">
-        <v>0</v>
+        <v>0.64119428190065131</v>
       </c>
       <c r="BP57" s="0">
         <v>0</v>
@@ -11873,7 +11873,7 @@
         <v>0</v>
       </c>
       <c r="B58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" s="0">
         <v>0</v>
@@ -11888,7 +11888,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="0">
-        <v>0</v>
+        <v>0.53730206926267576</v>
       </c>
       <c r="H58" s="0">
         <v>0</v>
@@ -11927,7 +11927,7 @@
         <v>0</v>
       </c>
       <c r="T58" s="0">
-        <v>0</v>
+        <v>0.8690253530349743</v>
       </c>
       <c r="U58" s="0">
         <v>0</v>
@@ -11945,7 +11945,7 @@
         <v>0</v>
       </c>
       <c r="Z58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA58" s="0">
         <v>0</v>
@@ -11957,7 +11957,7 @@
         <v>0</v>
       </c>
       <c r="AD58" s="0">
-        <v>0</v>
+        <v>0.725642636477416</v>
       </c>
       <c r="AE58" s="0">
         <v>0</v>
@@ -11972,10 +11972,10 @@
         <v>0</v>
       </c>
       <c r="AI58" s="0">
-        <v>1</v>
+        <v>0.97357710149402765</v>
       </c>
       <c r="AJ58" s="0">
-        <v>0</v>
+        <v>0.53895481835365455</v>
       </c>
       <c r="AK58" s="0">
         <v>0</v>
@@ -12011,7 +12011,7 @@
         <v>0</v>
       </c>
       <c r="AV58" s="0">
-        <v>0</v>
+        <v>0.67482440939428834</v>
       </c>
       <c r="AW58" s="0">
         <v>0</v>
@@ -12044,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH58" s="0">
         <v>0</v>
@@ -12088,16 +12088,16 @@
         <v>0</v>
       </c>
       <c r="E59" s="0">
-        <v>0</v>
+        <v>0.78238296823810694</v>
       </c>
       <c r="F59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" s="0">
         <v>0</v>
       </c>
       <c r="H59" s="0">
-        <v>0</v>
+        <v>0.80479141959398715</v>
       </c>
       <c r="I59" s="0">
         <v>0</v>
@@ -12229,13 +12229,13 @@
         <v>0</v>
       </c>
       <c r="AZ59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA59" s="0">
         <v>0</v>
       </c>
       <c r="BB59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC59" s="0">
         <v>0</v>
@@ -12247,16 +12247,16 @@
         <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>0</v>
+        <v>0.53074113390315014</v>
       </c>
       <c r="BI59" s="0">
-        <v>0</v>
+        <v>0.54628601116070441</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12282,10 +12282,10 @@
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B60" s="0">
-        <v>0</v>
+        <v>0.76354024331092707</v>
       </c>
       <c r="C60" s="0">
         <v>0</v>
@@ -12294,7 +12294,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="0">
-        <v>0</v>
+        <v>0.66888722271496959</v>
       </c>
       <c r="F60" s="0">
         <v>0</v>
@@ -12330,7 +12330,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R60" s="0">
         <v>0</v>
@@ -12342,7 +12342,7 @@
         <v>0</v>
       </c>
       <c r="U60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V60" s="0">
         <v>0</v>
@@ -12354,7 +12354,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z60" s="0">
         <v>0</v>
@@ -12366,7 +12366,7 @@
         <v>0</v>
       </c>
       <c r="AC60" s="0">
-        <v>0</v>
+        <v>0.60365350561704845</v>
       </c>
       <c r="AD60" s="0">
         <v>0</v>
@@ -12408,7 +12408,7 @@
         <v>0</v>
       </c>
       <c r="AQ60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR60" s="0">
         <v>0</v>
@@ -12456,13 +12456,13 @@
         <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>0</v>
+        <v>0.61784591902469288</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ60" s="0">
         <v>0</v>
@@ -12548,7 +12548,7 @@
         <v>0</v>
       </c>
       <c r="U61" s="0">
-        <v>0</v>
+        <v>0.51857569077242449</v>
       </c>
       <c r="V61" s="0">
         <v>0</v>
@@ -12575,7 +12575,7 @@
         <v>0</v>
       </c>
       <c r="AD61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE61" s="0">
         <v>0</v>
@@ -12629,7 +12629,7 @@
         <v>0</v>
       </c>
       <c r="AV61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW61" s="0">
         <v>0</v>
@@ -12638,7 +12638,7 @@
         <v>0</v>
       </c>
       <c r="AY61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ61" s="0">
         <v>0</v>
@@ -12662,16 +12662,16 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>0</v>
+        <v>0.65865309446175813</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0</v>
+        <v>0.81712398547194698</v>
       </c>
       <c r="BK61" s="0">
         <v>0</v>
@@ -12683,7 +12683,7 @@
         <v>0</v>
       </c>
       <c r="BN61" s="0">
-        <v>0</v>
+        <v>0.7096801010949052</v>
       </c>
       <c r="BO61" s="0">
         <v>0</v>
@@ -12709,13 +12709,13 @@
         <v>0</v>
       </c>
       <c r="F62" s="0">
-        <v>0</v>
+        <v>0.65909976824219563</v>
       </c>
       <c r="G62" s="0">
         <v>0</v>
       </c>
       <c r="H62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" s="0">
         <v>0</v>
@@ -12763,10 +12763,10 @@
         <v>0</v>
       </c>
       <c r="X62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y62" s="0">
-        <v>0</v>
+        <v>0.8531221435851819</v>
       </c>
       <c r="Z62" s="0">
         <v>0</v>
@@ -12796,7 +12796,7 @@
         <v>0</v>
       </c>
       <c r="AI62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ62" s="0">
         <v>0</v>
@@ -12829,7 +12829,7 @@
         <v>0</v>
       </c>
       <c r="AT62" s="0">
-        <v>0</v>
+        <v>0.82419879125471751</v>
       </c>
       <c r="AU62" s="0">
         <v>0</v>
@@ -12874,7 +12874,7 @@
         <v>0</v>
       </c>
       <c r="BI62" s="0">
-        <v>0</v>
+        <v>0.83614815673690523</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
@@ -12900,7 +12900,7 @@
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B63" s="0">
         <v>0</v>
@@ -12954,13 +12954,13 @@
         <v>0</v>
       </c>
       <c r="S63" s="0">
-        <v>0</v>
+        <v>0.58228004489998186</v>
       </c>
       <c r="T63" s="0">
-        <v>0</v>
+        <v>0.85181030088720755</v>
       </c>
       <c r="U63" s="0">
-        <v>0</v>
+        <v>0.61167526839619679</v>
       </c>
       <c r="V63" s="0">
         <v>0</v>
@@ -12984,7 +12984,7 @@
         <v>0</v>
       </c>
       <c r="AC63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD63" s="0">
         <v>0</v>
@@ -12993,7 +12993,7 @@
         <v>0</v>
       </c>
       <c r="AF63" s="0">
-        <v>0</v>
+        <v>0.91558251535201851</v>
       </c>
       <c r="AG63" s="0">
         <v>0</v>
@@ -13011,7 +13011,7 @@
         <v>0</v>
       </c>
       <c r="AL63" s="0">
-        <v>0</v>
+        <v>0.6083991202115564</v>
       </c>
       <c r="AM63" s="0">
         <v>0</v>
@@ -13035,7 +13035,7 @@
         <v>0</v>
       </c>
       <c r="AT63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU63" s="0">
         <v>0</v>
@@ -13056,7 +13056,7 @@
         <v>0</v>
       </c>
       <c r="BA63" s="0">
-        <v>0</v>
+        <v>0.68054430071245764</v>
       </c>
       <c r="BB63" s="0">
         <v>0</v>
@@ -13065,7 +13065,7 @@
         <v>0</v>
       </c>
       <c r="BD63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE63" s="0">
         <v>0</v>
@@ -13115,7 +13115,7 @@
         <v>0</v>
       </c>
       <c r="D64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" s="0">
         <v>0</v>
@@ -13133,7 +13133,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="0">
-        <v>0</v>
+        <v>0.57942326620554185</v>
       </c>
       <c r="K64" s="0">
         <v>0</v>
@@ -13148,7 +13148,7 @@
         <v>0</v>
       </c>
       <c r="O64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P64" s="0">
         <v>0</v>
@@ -13160,7 +13160,7 @@
         <v>0</v>
       </c>
       <c r="S64" s="0">
-        <v>0</v>
+        <v>0.59460241159717286</v>
       </c>
       <c r="T64" s="0">
         <v>0</v>
@@ -13175,7 +13175,7 @@
         <v>0</v>
       </c>
       <c r="X64" s="0">
-        <v>0</v>
+        <v>0.74657486493581826</v>
       </c>
       <c r="Y64" s="0">
         <v>0</v>
@@ -13214,7 +13214,7 @@
         <v>0</v>
       </c>
       <c r="AK64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL64" s="0">
         <v>0</v>
@@ -13256,10 +13256,10 @@
         <v>0</v>
       </c>
       <c r="AY64" s="0">
-        <v>0</v>
+        <v>0.7271121921764867</v>
       </c>
       <c r="AZ64" s="0">
-        <v>0</v>
+        <v>0.74020195805989641</v>
       </c>
       <c r="BA64" s="0">
         <v>0</v>
@@ -13298,7 +13298,7 @@
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN64" s="0">
         <v>0</v>
@@ -13387,7 +13387,7 @@
         <v>0</v>
       </c>
       <c r="Z65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA65" s="0">
         <v>0</v>
@@ -13450,7 +13450,7 @@
         <v>0</v>
       </c>
       <c r="AU65" s="0">
-        <v>1</v>
+        <v>0.7383691639825678</v>
       </c>
       <c r="AV65" s="0">
         <v>0</v>
@@ -13480,7 +13480,7 @@
         <v>0</v>
       </c>
       <c r="BE65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF65" s="0">
         <v>0</v>
@@ -13501,16 +13501,16 @@
         <v>0</v>
       </c>
       <c r="BL65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0.7021195968007361</v>
       </c>
       <c r="BO65" s="0">
-        <v>0</v>
+        <v>0.73790458178794971</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13524,7 +13524,7 @@
         <v>0</v>
       </c>
       <c r="C66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66" s="0">
         <v>0</v>
@@ -13539,7 +13539,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="0">
-        <v>0</v>
+        <v>0.77198637231546152</v>
       </c>
       <c r="I66" s="0">
         <v>0</v>
@@ -13614,13 +13614,13 @@
         <v>0</v>
       </c>
       <c r="AG66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH66" s="0">
-        <v>0</v>
+        <v>0.64682852046821071</v>
       </c>
       <c r="AI66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ66" s="0">
         <v>0</v>
@@ -13698,7 +13698,7 @@
         <v>0</v>
       </c>
       <c r="BI66" s="0">
-        <v>0</v>
+        <v>0.75582848271421788</v>
       </c>
       <c r="BJ66" s="0">
         <v>0</v>
@@ -13710,7 +13710,7 @@
         <v>0</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0.95827204142244815</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
@@ -13766,7 +13766,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P67" s="0">
         <v>0</v>
@@ -13808,7 +13808,7 @@
         <v>0</v>
       </c>
       <c r="AC67" s="0">
-        <v>1</v>
+        <v>0.7632923112768788</v>
       </c>
       <c r="AD67" s="0">
         <v>0</v>
@@ -13817,13 +13817,13 @@
         <v>0</v>
       </c>
       <c r="AF67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG67" s="0">
         <v>0</v>
       </c>
       <c r="AH67" s="0">
-        <v>0</v>
+        <v>0.91180163838120487</v>
       </c>
       <c r="AI67" s="0">
         <v>0</v>
@@ -13853,22 +13853,22 @@
         <v>0</v>
       </c>
       <c r="AR67" s="0">
-        <v>0</v>
+        <v>0.79421078071864926</v>
       </c>
       <c r="AS67" s="0">
-        <v>0</v>
+        <v>0.6914149246154202</v>
       </c>
       <c r="AT67" s="0">
         <v>0</v>
       </c>
       <c r="AU67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV67" s="0">
         <v>0</v>
       </c>
       <c r="AW67" s="0">
-        <v>0</v>
+        <v>0.8252713983779868</v>
       </c>
       <c r="AX67" s="0">
         <v>0</v>
@@ -13886,13 +13886,13 @@
         <v>0</v>
       </c>
       <c r="BC67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD67" s="0">
         <v>0</v>
       </c>
       <c r="BE67" s="0">
-        <v>0</v>
+        <v>0.78494542425325187</v>
       </c>
       <c r="BF67" s="0">
         <v>0</v>
@@ -13916,7 +13916,7 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>0</v>
+        <v>0.55953305617667504</v>
       </c>
       <c r="BN67" s="0">
         <v>0</v>
@@ -13933,7 +13933,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -13957,7 +13957,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="0">
-        <v>0</v>
+        <v>0.57010712707877376</v>
       </c>
       <c r="K68" s="0">
         <v>0</v>
@@ -13972,7 +13972,7 @@
         <v>0</v>
       </c>
       <c r="O68" s="0">
-        <v>0</v>
+        <v>0.66323686711070839</v>
       </c>
       <c r="P68" s="0">
         <v>0</v>
@@ -14002,7 +14002,7 @@
         <v>0</v>
       </c>
       <c r="Y68" s="0">
-        <v>0</v>
+        <v>0.65794910941596474</v>
       </c>
       <c r="Z68" s="0">
         <v>0</v>
@@ -14026,13 +14026,13 @@
         <v>0</v>
       </c>
       <c r="AG68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH68" s="0">
         <v>0</v>
       </c>
       <c r="AI68" s="0">
-        <v>0</v>
+        <v>0.82090729969313836</v>
       </c>
       <c r="AJ68" s="0">
         <v>0</v>
@@ -14056,7 +14056,7 @@
         <v>0</v>
       </c>
       <c r="AQ68" s="0">
-        <v>0</v>
+        <v>0.86392799756917082</v>
       </c>
       <c r="AR68" s="0">
         <v>0</v>
@@ -14080,7 +14080,7 @@
         <v>0</v>
       </c>
       <c r="AY68" s="0">
-        <v>0</v>
+        <v>0.50295813316180171</v>
       </c>
       <c r="AZ68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject18.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject18.xlsx
@@ -179,7 +179,7 @@
         <v>0</v>
       </c>
       <c r="R1" s="0">
-        <v>0.58587223295496116</v>
+        <v>0.84783393725096001</v>
       </c>
       <c r="S1" s="0">
         <v>0</v>
@@ -236,10 +236,10 @@
         <v>0</v>
       </c>
       <c r="AK1" s="0">
-        <v>0.5350270937571977</v>
+        <v>0.85164221402122675</v>
       </c>
       <c r="AL1" s="0">
-        <v>0.72839985508882532</v>
+        <v>0.74021726911777597</v>
       </c>
       <c r="AM1" s="0">
         <v>0</v>
@@ -248,7 +248,7 @@
         <v>0</v>
       </c>
       <c r="AO1" s="0">
-        <v>0.59438939488491127</v>
+        <v>0.66244753931254485</v>
       </c>
       <c r="AP1" s="0">
         <v>0</v>
@@ -490,13 +490,13 @@
         <v>0</v>
       </c>
       <c r="BA2" s="0">
-        <v>0.61850619327329226</v>
+        <v>0.71541485904666713</v>
       </c>
       <c r="BB2" s="0">
         <v>0</v>
       </c>
       <c r="BC2" s="0">
-        <v>0.54713807010959492</v>
+        <v>0.60551002463644166</v>
       </c>
       <c r="BD2" s="0">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="0">
-        <v>0.63226277071924697</v>
+        <v>0.64371342225794703</v>
       </c>
       <c r="Q3" s="0">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="BA3" s="0">
-        <v>0.75173513543031123</v>
+        <v>0.92735325295060289</v>
       </c>
       <c r="BB3" s="0">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>0.58216194839472246</v>
+        <v>0.6874721310360179</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.76440923878054767</v>
+        <v>0.80560854869224052</v>
       </c>
       <c r="F4" s="0">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="0">
-        <v>0.56458028326016463</v>
+        <v>0.76644337936639761</v>
       </c>
       <c r="V4" s="0">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Z5" s="0">
-        <v>0.71783880311911474</v>
+        <v>0.85953001256127948</v>
       </c>
       <c r="AA5" s="0">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="BG5" s="0">
-        <v>0.74696250215563009</v>
+        <v>0.78238296823810694</v>
       </c>
       <c r="BH5" s="0">
         <v>0.96126297118391901</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="AL6" s="0">
-        <v>0.71350331238788345</v>
+        <v>0.88940613293482351</v>
       </c>
       <c r="AM6" s="0">
         <v>0</v>
@@ -1439,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="Z7" s="0">
-        <v>0.68912131743883842</v>
+        <v>0.852041042658926</v>
       </c>
       <c r="AA7" s="0">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>0.67932919536731207</v>
+        <v>0.92477905362752377</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="0">
-        <v>0.83608310598217717</v>
+        <v>0.86061346397804805</v>
       </c>
       <c r="AC8" s="0">
         <v>0</v>
@@ -1744,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="BG8" s="0">
-        <v>0.57350898855643406</v>
+        <v>0.80479141959398715</v>
       </c>
       <c r="BH8" s="0">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0.61317959756533325</v>
+        <v>0.81456143039258</v>
       </c>
       <c r="K9" s="0">
         <v>0.91951348797212762</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="AU10" s="0">
-        <v>0.56107041637150279</v>
+        <v>0.96621892580383162</v>
       </c>
       <c r="AV10" s="0">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0.60740611385656806</v>
+        <v>0.91951348797212762</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>0.55397888209250179</v>
+        <v>0.98459877246573391</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="0">
-        <v>0.64078388925304974</v>
+        <v>0.68479822942764068</v>
       </c>
       <c r="R12" s="0">
         <v>0</v>
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="BA13" s="0">
-        <v>0.66081192088474472</v>
+        <v>0.72343862020649419</v>
       </c>
       <c r="BB13" s="0">
         <v>0</v>
@@ -2866,7 +2866,7 @@
         <v>0.58396731919409572</v>
       </c>
       <c r="U14" s="0">
-        <v>0.5276088057859829</v>
+        <v>0.88614145937524524</v>
       </c>
       <c r="V14" s="0">
         <v>0</v>
@@ -3051,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="0">
-        <v>0.8320129467685291</v>
+        <v>0.99722154637918414</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>0.54892883645881652</v>
+        <v>0.91796047049006435</v>
       </c>
       <c r="P17" s="0">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>0.68053416522700205</v>
+        <v>0.73648036673825956</v>
       </c>
       <c r="Q18" s="0">
         <v>0</v>
@@ -3747,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="AN18" s="0">
-        <v>0.5304311621820097</v>
+        <v>0.70001267668346012</v>
       </c>
       <c r="AO18" s="0">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="BA19" s="0">
-        <v>0.88865985729870256</v>
+        <v>0.97679869928827046</v>
       </c>
       <c r="BB19" s="0">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0.96531910436593615</v>
       </c>
       <c r="BL19" s="0">
-        <v>0.54217347357846801</v>
+        <v>0.59460241159717286</v>
       </c>
       <c r="BM19" s="0">
         <v>0</v>
@@ -4081,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="0">
-        <v>0.50200172352394046</v>
+        <v>0.58396731919409572</v>
       </c>
       <c r="O20" s="0">
         <v>0</v>
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="AS20" s="0">
-        <v>0.58197051330298888</v>
+        <v>0.99804545865566885</v>
       </c>
       <c r="AT20" s="0">
         <v>0</v>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="BK20" s="0">
-        <v>0.76039642935555718</v>
+        <v>0.85181030088720755</v>
       </c>
       <c r="BL20" s="0">
         <v>0</v>
@@ -4568,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="AM22" s="0">
-        <v>0.60299305353232546</v>
+        <v>0.79109007997128644</v>
       </c>
       <c r="AN22" s="0">
         <v>0</v>
@@ -4577,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="AP22" s="0">
-        <v>0.6651380661667422</v>
+        <v>0.81593270686320341</v>
       </c>
       <c r="AQ22" s="0">
         <v>0</v>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="0">
-        <v>0.753608705826599</v>
+        <v>0.93273267806474303</v>
       </c>
       <c r="N23" s="0">
         <v>0</v>
@@ -4938,13 +4938,13 @@
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>0.63883218111939422</v>
+        <v>0.96486129745642502</v>
       </c>
       <c r="Z24" s="0">
         <v>0</v>
       </c>
       <c r="AA24" s="0">
-        <v>0.57661782630485359</v>
+        <v>0.73923458038901246</v>
       </c>
       <c r="AB24" s="0">
         <v>0</v>
@@ -5105,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="0">
-        <v>0.53930146214793573</v>
+        <v>0.78848858632606222</v>
       </c>
       <c r="M25" s="0">
         <v>0</v>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>0.57787813698032509</v>
+        <v>0.83997343161025861</v>
       </c>
       <c r="X25" s="0">
         <v>0.96486129745642502</v>
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="AJ25" s="0">
-        <v>0.66656836510415785</v>
+        <v>0.95491772702992594</v>
       </c>
       <c r="AK25" s="0">
         <v>0</v>
@@ -5255,7 +5255,7 @@
         <v>0</v>
       </c>
       <c r="BJ25" s="0">
-        <v>0.5091855509933163</v>
+        <v>0.8531221435851819</v>
       </c>
       <c r="BK25" s="0">
         <v>0</v>
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="BP25" s="0">
-        <v>0.63278014696945339</v>
+        <v>0.65794910941596474</v>
       </c>
     </row>
     <row r="26">
@@ -5389,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="AL26" s="0">
-        <v>0.75178028173530498</v>
+        <v>0.8163208784076661</v>
       </c>
       <c r="AM26" s="0">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="0">
-        <v>0.55681347807643811</v>
+        <v>0.66537065374190973</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5652,7 +5652,7 @@
         <v>0</v>
       </c>
       <c r="BE27" s="0">
-        <v>0.88324733481525652</v>
+        <v>0.88601125498558542</v>
       </c>
       <c r="BF27" s="0">
         <v>0</v>
@@ -5720,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="0">
-        <v>0.55846698817080531</v>
+        <v>0.5920336855277728</v>
       </c>
       <c r="L28" s="0">
         <v>0</v>
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="S28" s="0">
-        <v>0.56480728165576355</v>
+        <v>0.61377405653323303</v>
       </c>
       <c r="T28" s="0">
         <v>0</v>
@@ -5849,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="BB28" s="0">
-        <v>0.69762148966685</v>
+        <v>0.97073574143022379</v>
       </c>
       <c r="BC28" s="0">
         <v>0</v>
@@ -6094,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="BO29" s="0">
-        <v>0.62598156976827923</v>
+        <v>0.7632923112768788</v>
       </c>
       <c r="BP29" s="0">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>0.51778281468643428</v>
+        <v>0.59135805717161616</v>
       </c>
       <c r="AF30" s="0">
         <v>0</v>
@@ -6228,7 +6228,7 @@
         <v>0</v>
       </c>
       <c r="AQ30" s="0">
-        <v>0.7293941369322906</v>
+        <v>0.95106644976585919</v>
       </c>
       <c r="AR30" s="0">
         <v>0</v>
@@ -6273,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="BF30" s="0">
-        <v>0.71078033572300736</v>
+        <v>0.725642636477416</v>
       </c>
       <c r="BG30" s="0">
         <v>0</v>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="AN31" s="0">
-        <v>0.92824192247372583</v>
+        <v>0.95590361309752736</v>
       </c>
       <c r="AO31" s="0">
         <v>0</v>
@@ -6535,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="0">
-        <v>0.68920931944914443</v>
+        <v>0.88207520326175226</v>
       </c>
       <c r="I32" s="0">
         <v>0</v>
@@ -6700,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="BK32" s="0">
-        <v>0.63543246941830778</v>
+        <v>0.91558251535201851</v>
       </c>
       <c r="BL32" s="0">
         <v>0</v>
@@ -6720,13 +6720,13 @@
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.95762674795745717</v>
+        <v>0.9931843240158853</v>
       </c>
       <c r="B33" s="0">
         <v>0</v>
       </c>
       <c r="C33" s="0">
-        <v>0.59623063222476358</v>
+        <v>0.81323188332200924</v>
       </c>
       <c r="D33" s="0">
         <v>0</v>
@@ -6950,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="0">
-        <v>0.51549045866744958</v>
+        <v>0.60515086012786068</v>
       </c>
       <c r="J34" s="0">
         <v>0</v>
@@ -6974,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="0">
-        <v>0.76417867191832023</v>
+        <v>0.76506593883684015</v>
       </c>
       <c r="R34" s="0">
         <v>0</v>
@@ -7016,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="AE34" s="0">
-        <v>0.51803737263167227</v>
+        <v>0.88936895427063845</v>
       </c>
       <c r="AF34" s="0">
         <v>0</v>
@@ -7121,10 +7121,10 @@
         <v>0</v>
       </c>
       <c r="BN34" s="0">
-        <v>0.58447547742131789</v>
+        <v>0.64682852046821071</v>
       </c>
       <c r="BO34" s="0">
-        <v>0.56521059309835631</v>
+        <v>0.91180163838120487</v>
       </c>
       <c r="BP34" s="0">
         <v>0</v>
@@ -7228,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0.63508021822173466</v>
+        <v>0.88824576319212656</v>
       </c>
       <c r="AH35" s="0">
         <v>0</v>
@@ -7303,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="BF35" s="0">
-        <v>0.8390107126142794</v>
+        <v>0.97357710149402765</v>
       </c>
       <c r="BG35" s="0">
         <v>0</v>
@@ -7333,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="BP35" s="0">
-        <v>0.66919409783208805</v>
+        <v>0.82090729969313836</v>
       </c>
     </row>
     <row r="36">
@@ -7610,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="0">
-        <v>0.55443842541520272</v>
+        <v>0.58099888715473835</v>
       </c>
       <c r="X37" s="0">
         <v>0</v>
@@ -7625,7 +7625,7 @@
         <v>0</v>
       </c>
       <c r="AB37" s="0">
-        <v>0.84532107897380904</v>
+        <v>0.95558722071509661</v>
       </c>
       <c r="AC37" s="0">
         <v>0</v>
@@ -7634,7 +7634,7 @@
         <v>0</v>
       </c>
       <c r="AE37" s="0">
-        <v>0.86269555551841115</v>
+        <v>0.97510533385956188</v>
       </c>
       <c r="AF37" s="0">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0.51303851631386632</v>
+        <v>0.72226529778061677</v>
       </c>
       <c r="AJ37" s="0">
         <v>0</v>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="AY37" s="0">
-        <v>0.821489291265318</v>
+        <v>0.89062645446558708</v>
       </c>
       <c r="AZ37" s="0">
         <v>0</v>
@@ -7706,7 +7706,7 @@
         <v>0</v>
       </c>
       <c r="BC37" s="0">
-        <v>0.59467042089867783</v>
+        <v>0.71983912598316913</v>
       </c>
       <c r="BD37" s="0">
         <v>0</v>
@@ -7885,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="AT38" s="0">
-        <v>0.50465575043360011</v>
+        <v>0.93763551120995525</v>
       </c>
       <c r="AU38" s="0">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>0.81656503856226026</v>
+        <v>0.89273946442813767</v>
       </c>
       <c r="AO39" s="0">
         <v>0</v>
@@ -8180,7 +8180,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="0">
-        <v>0.57968617156717439</v>
+        <v>0.84629484388658072</v>
       </c>
       <c r="H40" s="0">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="BA40" s="0">
-        <v>0.94114598454819909</v>
+        <v>0.94742033117314817</v>
       </c>
       <c r="BB40" s="0">
         <v>0</v>
@@ -8416,7 +8416,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="0">
-        <v>0.62635290826933554</v>
+        <v>0.80433296188499015</v>
       </c>
       <c r="R41" s="0">
         <v>0</v>
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="AF42" s="0">
-        <v>0.56562998309177814</v>
+        <v>0.83719980521663051</v>
       </c>
       <c r="AG42" s="0">
         <v>0</v>
@@ -8694,7 +8694,7 @@
         <v>0</v>
       </c>
       <c r="AO42" s="0">
-        <v>0.84144105624991861</v>
+        <v>0.84471200622366371</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
@@ -8739,7 +8739,7 @@
         <v>0</v>
       </c>
       <c r="BD42" s="0">
-        <v>0.62214503636160923</v>
+        <v>0.78820986408494276</v>
       </c>
       <c r="BE42" s="0">
         <v>0</v>
@@ -8798,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="0">
-        <v>0.57313203471587004</v>
+        <v>0.68340753189130554</v>
       </c>
       <c r="H43" s="0">
         <v>0</v>
@@ -8912,7 +8912,7 @@
         <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>0.51541223055901586</v>
+        <v>0.67494028025040365</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8981,7 +8981,7 @@
         <v>0</v>
       </c>
       <c r="BP43" s="0">
-        <v>0.78035289880758552</v>
+        <v>0.86392799756917082</v>
       </c>
     </row>
     <row r="44">
@@ -9118,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>0.51717556929027042</v>
+        <v>0.57792272894193353</v>
       </c>
       <c r="AT44" s="0">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="BO44" s="0">
-        <v>0.66222690509535043</v>
+        <v>0.79421078071864926</v>
       </c>
       <c r="BP44" s="0">
         <v>0</v>
@@ -9390,7 +9390,7 @@
         <v>0</v>
       </c>
       <c r="BO45" s="0">
-        <v>0.56573907889889674</v>
+        <v>0.6914149246154202</v>
       </c>
       <c r="BP45" s="0">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="AD46" s="0">
-        <v>0.87407424512534004</v>
+        <v>0.9022192013864383</v>
       </c>
       <c r="AE46" s="0">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>0.65187130870031362</v>
+        <v>0.8560396150135271</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9858,7 +9858,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="0">
-        <v>0.71200943169308251</v>
+        <v>0.95465305618302154</v>
       </c>
       <c r="R48" s="0">
         <v>0</v>
@@ -10073,7 +10073,7 @@
         <v>0</v>
       </c>
       <c r="T49" s="0">
-        <v>0.66475261527603102</v>
+        <v>0.91786075944063494</v>
       </c>
       <c r="U49" s="0">
         <v>0</v>
@@ -10169,7 +10169,7 @@
         <v>0.93482304923351622</v>
       </c>
       <c r="AZ49" s="0">
-        <v>0.60169315322520811</v>
+        <v>0.89764701694972326</v>
       </c>
       <c r="BA49" s="0">
         <v>0</v>
@@ -10237,7 +10237,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="0">
-        <v>0.80967213689570872</v>
+        <v>0.92143643589492585</v>
       </c>
       <c r="G50" s="0">
         <v>0</v>
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>0.65904516035613248</v>
+        <v>0.93482304923351622</v>
       </c>
       <c r="AX51" s="0">
         <v>0</v>
@@ -10646,7 +10646,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="0">
-        <v>0.5439173226809777</v>
+        <v>0.58939316076429771</v>
       </c>
       <c r="F52" s="0">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="0">
-        <v>0.67332196091173291</v>
+        <v>0.91173294738318567</v>
       </c>
       <c r="P52" s="0">
         <v>0</v>
@@ -10712,7 +10712,7 @@
         <v>0</v>
       </c>
       <c r="AA52" s="0">
-        <v>0.61897825539567719</v>
+        <v>0.95434677774033894</v>
       </c>
       <c r="AB52" s="0">
         <v>0</v>
@@ -10954,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="AM53" s="0">
-        <v>0.6067484130227051</v>
+        <v>0.99198768863052256</v>
       </c>
       <c r="AN53" s="0">
         <v>0.94742033117314817</v>
@@ -10987,7 +10987,7 @@
         <v>0</v>
       </c>
       <c r="AX53" s="0">
-        <v>0.7864801830734568</v>
+        <v>0.95016194461531134</v>
       </c>
       <c r="AY53" s="0">
         <v>0</v>
@@ -11079,7 +11079,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="0">
-        <v>0.9184748128497765</v>
+        <v>0.97172902936404926</v>
       </c>
       <c r="M54" s="0">
         <v>0</v>
@@ -11115,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="X54" s="0">
-        <v>0.69129219743110881</v>
+        <v>0.81892659073428387</v>
       </c>
       <c r="Y54" s="0">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="O55" s="0">
-        <v>0.55939280444797534</v>
+        <v>0.79864562045518273</v>
       </c>
       <c r="P55" s="0">
         <v>0</v>
@@ -11497,7 +11497,7 @@
         <v>0</v>
       </c>
       <c r="N56" s="0">
-        <v>0.78795538871137016</v>
+        <v>0.92437514140331489</v>
       </c>
       <c r="O56" s="0">
         <v>0</v>
@@ -11587,7 +11587,7 @@
         <v>0</v>
       </c>
       <c r="AR56" s="0">
-        <v>0.56508107595663648</v>
+        <v>0.6643954369269971</v>
       </c>
       <c r="AS56" s="0">
         <v>0</v>
@@ -11760,7 +11760,7 @@
         <v>0</v>
       </c>
       <c r="AG57" s="0">
-        <v>0.65905332698313912</v>
+        <v>0.99742506287551036</v>
       </c>
       <c r="AH57" s="0">
         <v>0</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="BO57" s="0">
-        <v>0.64119428190065131</v>
+        <v>0.78494542425325187</v>
       </c>
       <c r="BP57" s="0">
         <v>0</v>
@@ -11888,7 +11888,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="0">
-        <v>0.53730206926267576</v>
+        <v>0.84849963591106348</v>
       </c>
       <c r="H58" s="0">
         <v>0</v>
@@ -11927,7 +11927,7 @@
         <v>0</v>
       </c>
       <c r="T58" s="0">
-        <v>0.8690253530349743</v>
+        <v>0.9125651747263408</v>
       </c>
       <c r="U58" s="0">
         <v>0</v>
@@ -11975,7 +11975,7 @@
         <v>0.97357710149402765</v>
       </c>
       <c r="AJ58" s="0">
-        <v>0.53895481835365455</v>
+        <v>0.91844655045440371</v>
       </c>
       <c r="AK58" s="0">
         <v>0</v>
@@ -12011,7 +12011,7 @@
         <v>0</v>
       </c>
       <c r="AV58" s="0">
-        <v>0.67482440939428834</v>
+        <v>0.6824627114193067</v>
       </c>
       <c r="AW58" s="0">
         <v>0</v>
@@ -12253,10 +12253,10 @@
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>0.53074113390315014</v>
+        <v>0.61784591902469288</v>
       </c>
       <c r="BI59" s="0">
-        <v>0.54628601116070441</v>
+        <v>0.65865309446175813</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12285,7 +12285,7 @@
         <v>0</v>
       </c>
       <c r="B60" s="0">
-        <v>0.76354024331092707</v>
+        <v>0.9414071055760026</v>
       </c>
       <c r="C60" s="0">
         <v>0</v>
@@ -12294,7 +12294,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="0">
-        <v>0.66888722271496959</v>
+        <v>0.96126297118391901</v>
       </c>
       <c r="F60" s="0">
         <v>0</v>
@@ -12366,7 +12366,7 @@
         <v>0</v>
       </c>
       <c r="AC60" s="0">
-        <v>0.60365350561704845</v>
+        <v>0.9443603388774513</v>
       </c>
       <c r="AD60" s="0">
         <v>0</v>
@@ -12548,7 +12548,7 @@
         <v>0</v>
       </c>
       <c r="U61" s="0">
-        <v>0.51857569077242449</v>
+        <v>0.77005666305835052</v>
       </c>
       <c r="V61" s="0">
         <v>0</v>
@@ -12671,7 +12671,7 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0.81712398547194698</v>
+        <v>0.83614815673690523</v>
       </c>
       <c r="BK61" s="0">
         <v>0</v>
@@ -12683,7 +12683,7 @@
         <v>0</v>
       </c>
       <c r="BN61" s="0">
-        <v>0.7096801010949052</v>
+        <v>0.75582848271421788</v>
       </c>
       <c r="BO61" s="0">
         <v>0</v>
@@ -12709,7 +12709,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="0">
-        <v>0.65909976824219563</v>
+        <v>0.83338715882048819</v>
       </c>
       <c r="G62" s="0">
         <v>0</v>
@@ -12829,7 +12829,7 @@
         <v>0</v>
       </c>
       <c r="AT62" s="0">
-        <v>0.82419879125471751</v>
+        <v>0.97479615501673189</v>
       </c>
       <c r="AU62" s="0">
         <v>0</v>
@@ -12954,13 +12954,13 @@
         <v>0</v>
       </c>
       <c r="S63" s="0">
-        <v>0.58228004489998186</v>
+        <v>0.96531910436593615</v>
       </c>
       <c r="T63" s="0">
         <v>0.85181030088720755</v>
       </c>
       <c r="U63" s="0">
-        <v>0.61167526839619679</v>
+        <v>0.95853715552404417</v>
       </c>
       <c r="V63" s="0">
         <v>0</v>
@@ -13011,7 +13011,7 @@
         <v>0</v>
       </c>
       <c r="AL63" s="0">
-        <v>0.6083991202115564</v>
+        <v>0.92487762288282971</v>
       </c>
       <c r="AM63" s="0">
         <v>0</v>
@@ -13056,7 +13056,7 @@
         <v>0</v>
       </c>
       <c r="BA63" s="0">
-        <v>0.68054430071245764</v>
+        <v>0.80328793084327321</v>
       </c>
       <c r="BB63" s="0">
         <v>0</v>
@@ -13133,7 +13133,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="0">
-        <v>0.57942326620554185</v>
+        <v>0.76268805005728779</v>
       </c>
       <c r="K64" s="0">
         <v>0</v>
@@ -13175,7 +13175,7 @@
         <v>0</v>
       </c>
       <c r="X64" s="0">
-        <v>0.74657486493581826</v>
+        <v>0.84732843713804651</v>
       </c>
       <c r="Y64" s="0">
         <v>0</v>
@@ -13256,10 +13256,10 @@
         <v>0</v>
       </c>
       <c r="AY64" s="0">
-        <v>0.7271121921764867</v>
+        <v>0.85857350603891769</v>
       </c>
       <c r="AZ64" s="0">
-        <v>0.74020195805989641</v>
+        <v>0.9166212629072511</v>
       </c>
       <c r="BA64" s="0">
         <v>0</v>
@@ -13450,7 +13450,7 @@
         <v>0</v>
       </c>
       <c r="AU65" s="0">
-        <v>0.7383691639825678</v>
+        <v>0.89230409677537093</v>
       </c>
       <c r="AV65" s="0">
         <v>0</v>
@@ -13507,7 +13507,7 @@
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>0.7021195968007361</v>
+        <v>0.95827204142244815</v>
       </c>
       <c r="BO65" s="0">
         <v>0.73790458178794971</v>
@@ -13539,7 +13539,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="0">
-        <v>0.77198637231546152</v>
+        <v>0.89827688647477699</v>
       </c>
       <c r="I66" s="0">
         <v>0</v>
@@ -13868,7 +13868,7 @@
         <v>0</v>
       </c>
       <c r="AW67" s="0">
-        <v>0.8252713983779868</v>
+        <v>0.9986001756477092</v>
       </c>
       <c r="AX67" s="0">
         <v>0</v>
@@ -13916,7 +13916,7 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>0.55953305617667504</v>
+        <v>0.73790458178794971</v>
       </c>
       <c r="BN67" s="0">
         <v>0</v>
@@ -13957,7 +13957,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="0">
-        <v>0.57010712707877376</v>
+        <v>0.66523041718317244</v>
       </c>
       <c r="K68" s="0">
         <v>0</v>
@@ -13972,7 +13972,7 @@
         <v>0</v>
       </c>
       <c r="O68" s="0">
-        <v>0.66323686711070839</v>
+        <v>0.66924201719848475</v>
       </c>
       <c r="P68" s="0">
         <v>0</v>
@@ -14080,7 +14080,7 @@
         <v>0</v>
       </c>
       <c r="AY68" s="0">
-        <v>0.50295813316180171</v>
+        <v>0.743508836714879</v>
       </c>
       <c r="AZ68" s="0">
         <v>0</v>
